--- a/docs/mcode/shr-core-EncounterDiagnosis-extension.xlsx
+++ b/docs/mcode/shr-core-EncounterDiagnosis-extension.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>38</v>
